--- a/LoginData.xlsx
+++ b/LoginData.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF516EAF-02AA-4095-9C26-D8686D65735D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BAEB47-702F-4D04-9411-7ACF8AB359C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="A">Sheet1!$1:$1048576</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Login Credentials of School Admin</t>
   </si>
@@ -47,6 +50,12 @@
   </si>
   <si>
     <t>Self Serve Url</t>
+  </si>
+  <si>
+    <t>gowtham.bobbili@qualitlabs.com</t>
+  </si>
+  <si>
+    <t>Gowtham143.</t>
   </si>
 </sst>
 </file>
@@ -446,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +487,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -495,7 +504,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>

--- a/LoginData.xlsx
+++ b/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BAEB47-702F-4D04-9411-7ACF8AB359C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622970A0-3889-41F7-9A03-66827CFEA0DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="2505" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Login Credentials of School Admin</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>Self Serve Url</t>
-  </si>
-  <si>
-    <t>gowtham.bobbili@qualitlabs.com</t>
-  </si>
-  <si>
-    <t>Gowtham143.</t>
   </si>
 </sst>
 </file>
@@ -487,7 +481,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -504,7 +498,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
